--- a/debug/BONK_debug.xlsx
+++ b/debug/BONK_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE869"/>
+  <dimension ref="A1:AE876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -88903,13 +88903,13 @@
         <v>1.426e-05</v>
       </c>
       <c r="C869" t="n">
-        <v>1.462e-05</v>
+        <v>1.502e-05</v>
       </c>
       <c r="D869" t="n">
         <v>1.397e-05</v>
       </c>
       <c r="E869" t="n">
-        <v>1.444e-05</v>
+        <v>1.463e-05</v>
       </c>
       <c r="F869" t="inlineStr">
         <is>
@@ -88947,7 +88947,7 @@
         <v>1.294e-05</v>
       </c>
       <c r="Q869" t="n">
-        <v>12.982998</v>
+        <v>16.074189</v>
       </c>
       <c r="R869" t="n">
         <v>52.7</v>
@@ -88992,6 +88992,713 @@
       </c>
       <c r="AE869" t="n">
         <v>1.397e-05</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>1.463e-05</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1.56e-05</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1.426e-05</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1.493e-05</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G870" t="b">
+        <v>1</v>
+      </c>
+      <c r="H870" t="n">
+        <v>5</v>
+      </c>
+      <c r="I870" t="n">
+        <v/>
+      </c>
+      <c r="J870" t="n">
+        <v/>
+      </c>
+      <c r="K870" t="n">
+        <v/>
+      </c>
+      <c r="L870" t="n">
+        <v/>
+      </c>
+      <c r="M870" t="n">
+        <v/>
+      </c>
+      <c r="N870" t="n">
+        <v/>
+      </c>
+      <c r="O870" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P870" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>20.556414</v>
+      </c>
+      <c r="R870" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S870" t="n">
+        <v>6</v>
+      </c>
+      <c r="T870" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U870" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V870" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W870" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X870" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y870" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z870" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA870" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB870" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC870" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD870" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="AE870" t="n">
+        <v>1.426e-05</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>1.493e-05</v>
+      </c>
+      <c r="C871" t="n">
+        <v>1.553e-05</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1.426e-05</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1.437e-05</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G871" t="b">
+        <v>1</v>
+      </c>
+      <c r="H871" t="n">
+        <v>5</v>
+      </c>
+      <c r="I871" t="n">
+        <v/>
+      </c>
+      <c r="J871" t="n">
+        <v/>
+      </c>
+      <c r="K871" t="n">
+        <v/>
+      </c>
+      <c r="L871" t="n">
+        <v/>
+      </c>
+      <c r="M871" t="n">
+        <v/>
+      </c>
+      <c r="N871" t="n">
+        <v/>
+      </c>
+      <c r="O871" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P871" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>20.015456</v>
+      </c>
+      <c r="R871" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S871" t="n">
+        <v>6</v>
+      </c>
+      <c r="T871" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U871" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V871" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W871" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X871" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y871" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z871" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA871" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB871" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC871" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD871" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="AE871" t="n">
+        <v>1.426e-05</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>1.437e-05</v>
+      </c>
+      <c r="C872" t="n">
+        <v>1.455e-05</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1.341e-05</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1.383e-05</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G872" t="b">
+        <v>1</v>
+      </c>
+      <c r="H872" t="n">
+        <v>5</v>
+      </c>
+      <c r="I872" t="n">
+        <v/>
+      </c>
+      <c r="J872" t="n">
+        <v/>
+      </c>
+      <c r="K872" t="n">
+        <v/>
+      </c>
+      <c r="L872" t="n">
+        <v/>
+      </c>
+      <c r="M872" t="n">
+        <v/>
+      </c>
+      <c r="N872" t="n">
+        <v/>
+      </c>
+      <c r="O872" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P872" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>12.44204</v>
+      </c>
+      <c r="R872" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S872" t="n">
+        <v>6</v>
+      </c>
+      <c r="T872" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U872" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V872" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W872" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X872" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y872" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z872" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA872" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB872" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC872" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD872" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="AE872" t="n">
+        <v>1.341e-05</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>1.384e-05</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1.482e-05</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1.378e-05</v>
+      </c>
+      <c r="E873" t="n">
+        <v>1.453e-05</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G873" t="b">
+        <v>1</v>
+      </c>
+      <c r="H873" t="n">
+        <v>5</v>
+      </c>
+      <c r="I873" t="n">
+        <v/>
+      </c>
+      <c r="J873" t="n">
+        <v/>
+      </c>
+      <c r="K873" t="n">
+        <v/>
+      </c>
+      <c r="L873" t="n">
+        <v/>
+      </c>
+      <c r="M873" t="n">
+        <v/>
+      </c>
+      <c r="N873" t="n">
+        <v/>
+      </c>
+      <c r="O873" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P873" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>14.528594</v>
+      </c>
+      <c r="R873" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S873" t="n">
+        <v>6</v>
+      </c>
+      <c r="T873" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U873" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V873" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W873" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X873" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y873" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z873" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA873" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB873" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC873" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD873" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="AE873" t="n">
+        <v>1.378e-05</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>1.453e-05</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1.51e-05</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1.434e-05</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1.488e-05</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G874" t="b">
+        <v>1</v>
+      </c>
+      <c r="H874" t="n">
+        <v>5</v>
+      </c>
+      <c r="I874" t="n">
+        <v/>
+      </c>
+      <c r="J874" t="n">
+        <v/>
+      </c>
+      <c r="K874" t="n">
+        <v/>
+      </c>
+      <c r="L874" t="n">
+        <v/>
+      </c>
+      <c r="M874" t="n">
+        <v/>
+      </c>
+      <c r="N874" t="n">
+        <v/>
+      </c>
+      <c r="O874" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P874" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>16.692427</v>
+      </c>
+      <c r="R874" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S874" t="n">
+        <v>6</v>
+      </c>
+      <c r="T874" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U874" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V874" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W874" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X874" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y874" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z874" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA874" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB874" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC874" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD874" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AE874" t="n">
+        <v>1.434e-05</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>1.488e-05</v>
+      </c>
+      <c r="C875" t="n">
+        <v>1.499e-05</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1.457e-05</v>
+      </c>
+      <c r="E875" t="n">
+        <v>1.488e-05</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G875" t="b">
+        <v>1</v>
+      </c>
+      <c r="H875" t="n">
+        <v>5</v>
+      </c>
+      <c r="I875" t="n">
+        <v/>
+      </c>
+      <c r="J875" t="n">
+        <v/>
+      </c>
+      <c r="K875" t="n">
+        <v/>
+      </c>
+      <c r="L875" t="n">
+        <v/>
+      </c>
+      <c r="M875" t="n">
+        <v/>
+      </c>
+      <c r="N875" t="n">
+        <v/>
+      </c>
+      <c r="O875" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P875" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>15.842349</v>
+      </c>
+      <c r="R875" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S875" t="n">
+        <v>6</v>
+      </c>
+      <c r="T875" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U875" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V875" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W875" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X875" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y875" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z875" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA875" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB875" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC875" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD875" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AE875" t="n">
+        <v>1.457e-05</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>1.488e-05</v>
+      </c>
+      <c r="C876" t="n">
+        <v>1.538e-05</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1.461e-05</v>
+      </c>
+      <c r="E876" t="n">
+        <v>1.517e-05</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G876" t="b">
+        <v>1</v>
+      </c>
+      <c r="H876" t="n">
+        <v>5</v>
+      </c>
+      <c r="I876" t="n">
+        <v/>
+      </c>
+      <c r="J876" t="n">
+        <v/>
+      </c>
+      <c r="K876" t="n">
+        <v/>
+      </c>
+      <c r="L876" t="n">
+        <v/>
+      </c>
+      <c r="M876" t="n">
+        <v/>
+      </c>
+      <c r="N876" t="n">
+        <v/>
+      </c>
+      <c r="O876" t="n">
+        <v>4.075e-05</v>
+      </c>
+      <c r="P876" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>18.85626</v>
+      </c>
+      <c r="R876" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="S876" t="n">
+        <v>6</v>
+      </c>
+      <c r="T876" t="n">
+        <v>2.282e-05</v>
+      </c>
+      <c r="U876" t="n">
+        <v>2.119e-05</v>
+      </c>
+      <c r="V876" t="n">
+        <v>1.8745e-05</v>
+      </c>
+      <c r="W876" t="n">
+        <v>1.67075e-05</v>
+      </c>
+      <c r="X876" t="n">
+        <v>1.42625e-05</v>
+      </c>
+      <c r="Y876" t="n">
+        <v>1.141e-05</v>
+      </c>
+      <c r="Z876" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AA876" t="n">
+        <v>7.742500000000001e-06</v>
+      </c>
+      <c r="AB876" t="n">
+        <v>2.23808e-05</v>
+      </c>
+      <c r="AC876" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD876" t="n">
+        <v>8.557500000000001e-06</v>
+      </c>
+      <c r="AE876" t="n">
+        <v>1.461e-05</v>
       </c>
     </row>
   </sheetData>
